--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Movies</t>
   </si>
   <si>
+    <t xml:space="preserve">Drama</t>
+  </si>
+  <si>
     <t xml:space="preserve">null</t>
   </si>
   <si>
@@ -70,31 +73,46 @@
     <t xml:space="preserve">https://lh3.googleusercontent.com/-M-l-fj3erPw/UxPopIR3qVI/AAAAAAAAABM/mw7ROBKAezY/w530-h531-n-rw/NOOBIELOGO.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Game Rules</t>
+    <t xml:space="preserve">This Quiz has 5 questions.+The questions are of difficulty level “Easy”.+Total time given for this quiz is 5 minutes.+Once a Option is selected, it can’t be changed.</t>
   </si>
   <si>
     <t xml:space="preserve">Movie Pros</t>
   </si>
   <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
     <t xml:space="preserve">medium</t>
   </si>
   <si>
     <t xml:space="preserve">http://static1.squarespace.com/static/562169c4e4b013a54e869666/t/572144837c65e4ed40cc9b61/1529012403727/?format=1500w</t>
   </si>
   <si>
+    <t xml:space="preserve">This Quiz has 6 questions.+The questions are of difficulty level “Medium”.+Total time given for this quiz is 6 minutes.+Once a Option is selected, it can’t be changed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Movie Legends</t>
   </si>
   <si>
+    <t xml:space="preserve">SciFi</t>
+  </si>
+  <si>
     <t xml:space="preserve">hard</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.logolynx.com/images/logolynx/2a/2a52c0210d4f09ae93ccd2a9f7b6807c.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">This Quiz has 7 questions.+The questions are of difficulty level “Hard”.+Total time given for this quiz is 7 minutes.+Once a Option is selected, it can’t be changed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Action Aware</t>
   </si>
   <si>
-    <t xml:space="preserve">Action</t>
+    <t xml:space="preserve">https://previews.123rf.com/images/iqoncept/iqoncept1109/iqoncept110900015/10465601-the-word-action-as-a-3d-illustration-with-an-arrow-hitting-a-target-bullseye-in-the-letter-o-represe.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Quiz has 7 questions.+The questions are of difficulty level “Easy”.+Total time given for this quiz is 7 minutes.+Once a Option is selected, it can’t be changed.</t>
   </si>
   <si>
     <t xml:space="preserve">Comedy Canvas</t>
@@ -103,40 +121,79 @@
     <t xml:space="preserve">Comedy</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.brunel.ac.uk/research/Images/CCSRimage.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Quiz has 7 questions.+The questions are of difficulty level “Medium”.+Total time given for this quiz is 7 minutes.+Once a Option is selected, it can’t be changed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Romance Birds</t>
   </si>
   <si>
     <t xml:space="preserve">Romance</t>
   </si>
   <si>
-    <t xml:space="preserve">Thriller Finders</t>
+    <t xml:space="preserve">https://vignette.wikia.nocookie.net/central/images/a/ab/Romance.png/revision/latest?cb=20171028034947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thriller Seekers</t>
   </si>
   <si>
     <t xml:space="preserve">Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.adventureconnections.co.uk/wp-content/uploads/2016/09/thriller-dancing-experience1.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anime Lovers</t>
   </si>
   <si>
     <t xml:space="preserve">Anime</t>
   </si>
   <si>
-    <t xml:space="preserve">SiciFi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SciFi</t>
+    <t xml:space="preserve">https://images-wixmp-ed30a86b8c4ca887773594c2.wixmp.com/intermediary/f/23020cfd-bde1-43ac-8d55-dd2af378246e/d4xlisw-6cbf3f60-f54a-498f-9069-a9a990cec1f9.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiciFi Solvers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ytimg.com/vi/x8wnHXzUKSc/hqdefault.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Drama Classics</t>
   </si>
   <si>
-    <t xml:space="preserve">Drama</t>
+    <t xml:space="preserve">https://static1.squarespace.com/static/55bffa14e4b0536353951cf6/t/5bec7ee621c67c90311e07df/1549313840943/</t>
   </si>
   <si>
     <t xml:space="preserve">Historical Scholars</t>
   </si>
   <si>
     <t xml:space="preserve">Historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tes.com/sites/default/files/styles/news_article_hero/public/introducing-secondary-students-new-historical-periods.png?itok=tTrH9LCx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentary Deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdni.rt.com/files/2015.12/article/5661d7dac3618841498b45d4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reality Resolvers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reality &amp; Talk Shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/de/a/ac/Reality_Show_Logo.jpg</t>
   </si>
 </sst>
 </file>
@@ -146,12 +203,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,93 +228,18 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="13"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -265,59 +248,33 @@
       <color rgb="FF0000FF"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -325,23 +282,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -365,161 +307,41 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -530,21 +352,21 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="29.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="195.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="14.43"/>
   </cols>
@@ -611,22 +433,22 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -647,7 +469,7 @@
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -656,25 +478,25 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -695,7 +517,7 @@
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -704,25 +526,25 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -743,7 +565,7 @@
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -752,30 +574,30 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>700</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -784,62 +606,62 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>700</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" s="2" t="n">
-        <v>700</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -848,30 +670,30 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>700</v>
+      <c r="J8" s="2" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -880,30 +702,30 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>700</v>
+      <c r="I9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -912,30 +734,30 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>700</v>
+      <c r="I10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -944,30 +766,30 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>700</v>
+      <c r="I11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -976,25 +798,89 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>700</v>
+      <c r="I12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1003,14 +889,6 @@
     <hyperlink ref="G2" r:id="rId1" display="https://lh3.googleusercontent.com/-M-l-fj3erPw/UxPopIR3qVI/AAAAAAAAABM/mw7ROBKAezY/w530-h531-n-rw/NOOBIELOGO.jpg"/>
     <hyperlink ref="G3" r:id="rId2" display="http://static1.squarespace.com/static/562169c4e4b013a54e869666/t/572144837c65e4ed40cc9b61/1529012403727/?format=1500w"/>
     <hyperlink ref="G4" r:id="rId3" display="https://www.logolynx.com/images/logolynx/2a/2a52c0210d4f09ae93ccd2a9f7b6807c.jpeg"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://lh3.googleusercontent.com/-M-l-fj3erPw/UxPopIR3qVI/AAAAAAAAABM/mw7ROBKAezY/w530-h531-n-rw/NOOBIELOGO.jpg"/>
-    <hyperlink ref="G6" r:id="rId5" display="http://static1.squarespace.com/static/562169c4e4b013a54e869666/t/572144837c65e4ed40cc9b61/1529012403727/?format=1500w"/>
-    <hyperlink ref="G7" r:id="rId6" display="https://www.logolynx.com/images/logolynx/2a/2a52c0210d4f09ae93ccd2a9f7b6807c.jpeg"/>
-    <hyperlink ref="G8" r:id="rId7" display="https://lh3.googleusercontent.com/-M-l-fj3erPw/UxPopIR3qVI/AAAAAAAAABM/mw7ROBKAezY/w530-h531-n-rw/NOOBIELOGO.jpg"/>
-    <hyperlink ref="G9" r:id="rId8" display="http://static1.squarespace.com/static/562169c4e4b013a54e869666/t/572144837c65e4ed40cc9b61/1529012403727/?format=1500w"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://www.logolynx.com/images/logolynx/2a/2a52c0210d4f09ae93ccd2a9f7b6807c.jpeg"/>
-    <hyperlink ref="G11" r:id="rId10" display="https://lh3.googleusercontent.com/-M-l-fj3erPw/UxPopIR3qVI/AAAAAAAAABM/mw7ROBKAezY/w530-h531-n-rw/NOOBIELOGO.jpg"/>
-    <hyperlink ref="G12" r:id="rId11" display="http://static1.squarespace.com/static/562169c4e4b013a54e869666/t/572144837c65e4ed40cc9b61/1529012403727/?format=1500w"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -259,7 +259,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -352,8 +352,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -829,7 +829,7 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="1" t="s">

--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">Genre</t>
   </si>
   <si>
-    <t xml:space="preserve">Tag</t>
-  </si>
-  <si>
     <t xml:space="preserve">Level</t>
   </si>
   <si>
@@ -64,16 +61,13 @@
     <t xml:space="preserve">Drama</t>
   </si>
   <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
     <t xml:space="preserve">easy</t>
   </si>
   <si>
     <t xml:space="preserve">https://lh3.googleusercontent.com/-M-l-fj3erPw/UxPopIR3qVI/AAAAAAAAABM/mw7ROBKAezY/w530-h531-n-rw/NOOBIELOGO.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">This Quiz has 5 questions.+The questions are of difficulty level “Easy”.+Total time given for this quiz is 5 minutes.+Once a Option is selected, it can’t be changed.</t>
+    <t xml:space="preserve">Each Question will have Multiple Options.+Among them only one Option is Correct.+Player can\'t move to Next Question until an Option has been Selected.+Player can change Selected Option.+After timeout Game-Window will be automatically closed.</t>
   </si>
   <si>
     <t xml:space="preserve">Movie Pros</t>
@@ -88,9 +82,6 @@
     <t xml:space="preserve">http://static1.squarespace.com/static/562169c4e4b013a54e869666/t/572144837c65e4ed40cc9b61/1529012403727/?format=1500w</t>
   </si>
   <si>
-    <t xml:space="preserve">This Quiz has 6 questions.+The questions are of difficulty level “Medium”.+Total time given for this quiz is 6 minutes.+Once a Option is selected, it can’t be changed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Movie Legends</t>
   </si>
   <si>
@@ -103,18 +94,12 @@
     <t xml:space="preserve">https://www.logolynx.com/images/logolynx/2a/2a52c0210d4f09ae93ccd2a9f7b6807c.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">This Quiz has 7 questions.+The questions are of difficulty level “Hard”.+Total time given for this quiz is 7 minutes.+Once a Option is selected, it can’t be changed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Action Aware</t>
   </si>
   <si>
     <t xml:space="preserve">https://previews.123rf.com/images/iqoncept/iqoncept1109/iqoncept110900015/10465601-the-word-action-as-a-3d-illustration-with-an-arrow-hitting-a-target-bullseye-in-the-letter-o-represe.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">This Quiz has 7 questions.+The questions are of difficulty level “Easy”.+Total time given for this quiz is 7 minutes.+Once a Option is selected, it can’t be changed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comedy Canvas</t>
   </si>
   <si>
@@ -122,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.brunel.ac.uk/research/Images/CCSRimage.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Quiz has 7 questions.+The questions are of difficulty level “Medium”.+Total time given for this quiz is 7 minutes.+Once a Option is selected, it can’t be changed.</t>
   </si>
   <si>
     <t xml:space="preserve">Romance Birds</t>
@@ -350,10 +332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -362,13 +344,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="195.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="10" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,9 +381,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -417,39 +397,36 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>300</v>
-      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -465,39 +442,36 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>360</v>
-      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -513,39 +487,36 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>420</v>
-      </c>
+      <c r="G4" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -561,334 +532,303 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>420</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>420</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>420</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>420</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>420</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>420</v>
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>420</v>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>420</v>
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>420</v>
+        <v>48</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>420</v>
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://lh3.googleusercontent.com/-M-l-fj3erPw/UxPopIR3qVI/AAAAAAAAABM/mw7ROBKAezY/w530-h531-n-rw/NOOBIELOGO.jpg"/>
-    <hyperlink ref="G3" r:id="rId2" display="http://static1.squarespace.com/static/562169c4e4b013a54e869666/t/572144837c65e4ed40cc9b61/1529012403727/?format=1500w"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://www.logolynx.com/images/logolynx/2a/2a52c0210d4f09ae93ccd2a9f7b6807c.jpeg"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://lh3.googleusercontent.com/-M-l-fj3erPw/UxPopIR3qVI/AAAAAAAAABM/mw7ROBKAezY/w530-h531-n-rw/NOOBIELOGO.jpg"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://static1.squarespace.com/static/562169c4e4b013a54e869666/t/572144837c65e4ed40cc9b61/1529012403727/?format=1500w"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.logolynx.com/images/logolynx/2a/2a52c0210d4f09ae93ccd2a9f7b6807c.jpeg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -317,12 +317,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -335,7 +335,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,7 +463,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>15</v>
@@ -508,7 +508,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>15</v>
@@ -553,7 +553,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>15</v>
@@ -582,7 +582,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>15</v>
@@ -611,7 +611,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>15</v>
@@ -639,8 +639,8 @@
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>7</v>
+      <c r="G8" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>15</v>
@@ -668,8 +668,8 @@
       <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>7</v>
+      <c r="G9" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>15</v>
@@ -697,8 +697,8 @@
       <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>7</v>
+      <c r="G10" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>15</v>
@@ -726,8 +726,8 @@
       <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>7</v>
+      <c r="G11" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>15</v>
@@ -755,8 +755,8 @@
       <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>7</v>
+      <c r="G12" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>15</v>
@@ -784,8 +784,8 @@
       <c r="F13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>7</v>
+      <c r="G13" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>15</v>
@@ -813,8 +813,8 @@
       <c r="F14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>7</v>
+      <c r="G14" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>15</v>

--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="79">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">easy</t>
   </si>
   <si>
-    <t xml:space="preserve">https://previews.123rf.com/images/iqoncept/iqoncept1109/iqoncept110900015/10465601-the-word-action-as-a-3d-illustration-with-an-arrow-hitting-a-target-bullseye-in-the-letter-o-represe.jpg</t>
+    <t xml:space="preserve">https://wallpapercave.com/wp/wp2044878.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Each Question will have Multiple Options.+Among them only one Option is Correct.+Player can\'t move to Next Question until an Option has been Selected.+Player can change Selected Option.+After timeout Game-Window will be automatically closed.</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">hard</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.brunel.ac.uk/research/Images/CCSRimage.jpg</t>
+    <t xml:space="preserve">https://www.wallpapersbyte.com/wp-content/uploads/2015/06/Smiles-Smileys-Smile-Yellow-Balls-WallpapersByte-com-1280x1024.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Thriller Seekers</t>
@@ -103,13 +103,37 @@
     <t xml:space="preserve">https://vignette.wikia.nocookie.net/central/images/a/ab/Romance.png/revision/latest?cb=20171028034947</t>
   </si>
   <si>
+    <t xml:space="preserve">Hostory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images8.alphacoders.com/717/thumb-350-717747.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActionMania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wallpapercave.com/wp/wp2044883.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wallpapercave.com/wp/wp2312775.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images2.alphacoders.com/845/thumb-1920-84502.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drama Classics</t>
   </si>
   <si>
     <t xml:space="preserve">Drama</t>
   </si>
   <si>
-    <t xml:space="preserve">https://static1.squarespace.com/static/55bffa14e4b0536353951cf6/t/5bec7ee621c67c90311e07df/1549313840943/</t>
+    <t xml:space="preserve">https://images.alphacoders.com/637/thumb-350-637541.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Documentary Deck</t>
@@ -130,7 +154,7 @@
     <t xml:space="preserve">Reality &amp; Talk Shows</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.ytimg.com/vi/35zv9khFQs0/maxresdefault.jpg</t>
+    <t xml:space="preserve">https://images4.alphacoders.com/807/thumb-1920-807881.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">SiciFi Solvers</t>
@@ -145,13 +169,31 @@
     <t xml:space="preserve">Thriller Scholars</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.tes.com/sites/default/files/styles/news_article_hero/public/introducing-secondary-students-new-historical-periods.png?itok=tTrH9LCx</t>
+    <t xml:space="preserve">https://wallpapercave.com/wp/msi4htu.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nwave.com/wp-content/uploads/2018/09/nWave_FD_ARCHEOPTERYX.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images5.alphacoders.com/807/thumb-1920-807880.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.alphacoders.com/252/thumb-1920-252233.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images4.alphacoders.com/845/thumb-1920-84504.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images4.alphacoders.com/132/thumb-1920-132008.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images7.alphacoders.com/910/thumb-350-910103.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Reality Resolvers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/de/a/ac/Reality_Show_Logo.jpg</t>
+    <t xml:space="preserve">https://images.alphacoders.com/818/thumb-1920-818873.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Captial Pros</t>
@@ -169,13 +211,52 @@
     <t xml:space="preserve">http://practicemock.com/blog/wp-content-uploads/2017/12/Countries-Capitals-770x515.png</t>
   </si>
   <si>
-    <t xml:space="preserve">World Leaders</t>
+    <t xml:space="preserve">Captial Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://1.bp.blogspot.com/-AgMuCdpzs6I/U6BfePHb02I/AAAAAAAAElM/EvxRhsbsf3o/s1600/world-leaders.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images4.alphacoders.com/217/thumb-350-217624.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Capitals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images6.alphacoders.com/377/thumb-350-377219.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images4.alphacoders.com/551/thumb-350-551555.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images7.alphacoders.com/567/thumb-350-567990.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images7.alphacoders.com/679/thumb-350-679140.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images4.alphacoders.com/202/thumb-350-202478.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Presidents</t>
   </si>
   <si>
-    <t xml:space="preserve">https://1.bp.blogspot.com/-AgMuCdpzs6I/U6BfePHb02I/AAAAAAAAElM/EvxRhsbsf3o/s1600/world-leaders.gif</t>
+    <t xml:space="preserve">https://images3.alphacoders.com/566/thumb-350-566269.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images8.alphacoders.com/790/thumb-350-790642.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images5.alphacoders.com/905/thumb-350-905759.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images6.alphacoders.com/681/thumb-350-681347.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images5.alphacoders.com/905/thumb-1920-905759.jpg</t>
   </si>
 </sst>
 </file>
@@ -185,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -241,11 +322,30 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
+      <sz val="13"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,7 +390,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +419,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -336,10 +452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,20 +635,20 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -540,221 +656,835 @@
       <c r="G6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <v>200</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>250</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="n">
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    <row r="22" s="2" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2" t="n">
+      <c r="F22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1" t="n">
+      <c r="F23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://wallpapercave.com/wp/wp2044878.jpg"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://www.wallpapersbyte.com/wp-content/uploads/2015/06/Smiles-Smileys-Smile-Yellow-Balls-WallpapersByte-com-1280x1024.jpg"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://wallpapercave.com/wp/wp2044883.jpg"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://wallpapercave.com/wp/wp2312775.jpg"/>
+    <hyperlink ref="F9" r:id="rId5" display="https://images2.alphacoders.com/845/thumb-1920-84502.jpg"/>
+    <hyperlink ref="F10" r:id="rId6" display="https://images.alphacoders.com/637/thumb-350-637541.jpg"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://images4.alphacoders.com/807/thumb-1920-807881.jpg"/>
+    <hyperlink ref="F14" r:id="rId8" display="https://wallpapercave.com/wp/msi4htu.jpg"/>
+    <hyperlink ref="F18" r:id="rId9" display="https://images4.alphacoders.com/845/thumb-1920-84504.jpg"/>
+    <hyperlink ref="F19" r:id="rId10" display="https://images4.alphacoders.com/132/thumb-1920-132008.jpg"/>
+    <hyperlink ref="F20" r:id="rId11" display="https://images7.alphacoders.com/910/thumb-350-910103.jpg"/>
+    <hyperlink ref="F21" r:id="rId12" display="https://images.alphacoders.com/818/thumb-1920-818873.jpg"/>
+    <hyperlink ref="F24" r:id="rId13" display="https://images4.alphacoders.com/217/thumb-350-217624.jpg"/>
+    <hyperlink ref="F36" r:id="rId14" display="https://images5.alphacoders.com/905/thumb-1920-905759.jpg"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="99">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -124,6 +124,9 @@
     <t xml:space="preserve">https://wallpapercave.com/wp/wp2312775.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">All Thrilling</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images2.alphacoders.com/845/thumb-1920-84502.jpg</t>
   </si>
   <si>
@@ -172,21 +175,39 @@
     <t xml:space="preserve">https://wallpapercave.com/wp/msi4htu.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Super Drama</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.nwave.com/wp-content/uploads/2018/09/nWave_FD_ARCHEOPTERYX.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">All Reality</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images5.alphacoders.com/807/thumb-1920-807880.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Lost In SciFi</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images.alphacoders.com/252/thumb-1920-252233.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Throttling Thriller</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images4.alphacoders.com/845/thumb-1920-84504.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Fiction Only</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images4.alphacoders.com/132/thumb-1920-132008.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Love Birds</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images7.alphacoders.com/910/thumb-350-910103.jpg</t>
   </si>
   <si>
@@ -196,7 +217,7 @@
     <t xml:space="preserve">https://images.alphacoders.com/818/thumb-1920-818873.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Captial Pros</t>
+    <t xml:space="preserve">Captial Noobies</t>
   </si>
   <si>
     <t xml:space="preserve">General Knowledge</t>
@@ -217,43 +238,82 @@
     <t xml:space="preserve">https://1.bp.blogspot.com/-AgMuCdpzs6I/U6BfePHb02I/AAAAAAAAElM/EvxRhsbsf3o/s1600/world-leaders.gif</t>
   </si>
   <si>
+    <t xml:space="preserve">Capital Pros</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images4.alphacoders.com/217/thumb-350-217624.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Only Capitals</t>
+  </si>
+  <si>
     <t xml:space="preserve">       Capitals</t>
   </si>
   <si>
     <t xml:space="preserve">https://images6.alphacoders.com/377/thumb-350-377219.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Cap Quiz</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images4.alphacoders.com/551/thumb-350-551555.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Language Master</t>
+  </si>
+  <si>
     <t xml:space="preserve">Languages</t>
   </si>
   <si>
     <t xml:space="preserve">https://images7.alphacoders.com/567/thumb-350-567990.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Language Pros</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images7.alphacoders.com/679/thumb-350-679140.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Language Master II</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images4.alphacoders.com/202/thumb-350-202478.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Language Pros II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language Noobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President Noobs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Presidents</t>
   </si>
   <si>
     <t xml:space="preserve">https://images3.alphacoders.com/566/thumb-350-566269.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">President Noobs II</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images8.alphacoders.com/790/thumb-350-790642.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">President Pros</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images5.alphacoders.com/905/thumb-350-905759.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">President Pros II</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images6.alphacoders.com/681/thumb-350-681347.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President Master</t>
   </si>
   <si>
     <t xml:space="preserve">https://images5.alphacoders.com/905/thumb-1920-905759.jpg</t>
@@ -266,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,29 +383,10 @@
     <font>
       <b val="true"/>
       <sz val="13"/>
-      <name val="arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -390,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -419,18 +460,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,14 +483,14 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.42"/>
@@ -641,7 +670,7 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -656,7 +685,7 @@
       <c r="G6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="3" t="n">
@@ -667,10 +696,10 @@
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -685,7 +714,7 @@
       <c r="G7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="3" t="n">
@@ -696,10 +725,10 @@
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -714,7 +743,7 @@
       <c r="G8" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="3" t="n">
@@ -722,11 +751,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -736,12 +767,12 @@
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="3" t="n">
@@ -750,7 +781,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -759,13 +790,13 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>10</v>
@@ -779,22 +810,22 @@
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8" t="s">
         <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>10</v>
@@ -808,22 +839,22 @@
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>10</v>
@@ -837,22 +868,22 @@
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>10</v>
@@ -866,13 +897,13 @@
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -881,7 +912,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>10</v>
@@ -894,25 +925,28 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="n">
@@ -920,25 +954,28 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="3" t="n">
@@ -946,25 +983,28 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="3" t="n">
@@ -972,11 +1012,14 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>21</v>
@@ -985,12 +1028,12 @@
         <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="3" t="n">
@@ -998,25 +1041,28 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="3" t="n">
@@ -1024,11 +1070,14 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>25</v>
@@ -1037,12 +1086,12 @@
         <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="3" t="n">
@@ -1051,22 +1100,22 @@
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>10</v>
@@ -1079,52 +1128,52 @@
       </c>
     </row>
     <row r="22" s="2" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="A22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="8" t="n">
+      <c r="F22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>15</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="6" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>59</v>
+      <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>15</v>
@@ -1137,170 +1186,191 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="C25" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>22</v>
@@ -1308,22 +1378,25 @@
       <c r="G30" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -1331,141 +1404,156 @@
       <c r="G31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="99">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -483,14 +483,14 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.42"/>
@@ -1375,6 +1375,9 @@
       <c r="E30" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G30" s="1" t="n">
         <v>5</v>
       </c>
@@ -1400,6 +1403,9 @@
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>5</v>

--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="85">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -79,10 +79,31 @@
     <t xml:space="preserve">hard</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wallpapersbyte.com/wp-content/uploads/2015/06/Smiles-Smileys-Smile-Yellow-Balls-WallpapersByte-com-1280x1024.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thriller Seekers</t>
+    <t xml:space="preserve">https://bloximages.chicago2.vip.townnews.com/pressofatlanticcity.com/content/tncms/assets/v3/editorial/8/c3/8c3f0416-a6bc-11e2-b881-0019bb2963f4/516d8cdda39ea.image.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romance Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vignette.wikia.nocookie.net/central/images/a/ab/Romance.png/revision/latest?cb=20171028034947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Mania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wallpapercave.com/wp/wp2044883.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wallpapercave.com/wp/wp2312775.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Thrilling</t>
   </si>
   <si>
     <t xml:space="preserve">Thriller</t>
@@ -91,42 +112,6 @@
     <t xml:space="preserve">medium</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.adventureconnections.co.uk/wp-content/uploads/2016/09/thriller-dancing-experience1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romance Birds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vignette.wikia.nocookie.net/central/images/a/ab/Romance.png/revision/latest?cb=20171028034947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hostory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images8.alphacoders.com/717/thumb-350-717747.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActionMania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wallpapercave.com/wp/wp2044883.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wallpapercave.com/wp/wp2312775.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Thrilling</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://images2.alphacoders.com/845/thumb-1920-84502.jpg</t>
   </si>
   <si>
@@ -175,12 +160,6 @@
     <t xml:space="preserve">https://wallpapercave.com/wp/msi4htu.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Super Drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.nwave.com/wp-content/uploads/2018/09/nWave_FD_ARCHEOPTERYX.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">All Reality</t>
   </si>
   <si>
@@ -205,12 +184,6 @@
     <t xml:space="preserve">https://images4.alphacoders.com/132/thumb-1920-132008.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Love Birds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images7.alphacoders.com/910/thumb-350-910103.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reality Resolvers</t>
   </si>
   <si>
@@ -244,15 +217,6 @@
     <t xml:space="preserve">https://images4.alphacoders.com/217/thumb-350-217624.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Only Capitals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Capitals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images6.alphacoders.com/377/thumb-350-377219.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cap Quiz</t>
   </si>
   <si>
@@ -311,12 +275,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://images6.alphacoders.com/681/thumb-350-681347.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images5.alphacoders.com/905/thumb-1920-905759.jpg</t>
   </si>
 </sst>
 </file>
@@ -431,7 +389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -460,10 +418,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -481,20 +435,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29:F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="109.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.17"/>
@@ -606,7 +560,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -615,15 +569,15 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="3" t="n">
         <v>10</v>
       </c>
@@ -631,12 +585,12 @@
         <v>15</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -645,13 +599,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>10</v>
@@ -660,12 +614,12 @@
         <v>15</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -674,13 +628,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>10</v>
@@ -689,12 +643,12 @@
         <v>15</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -703,27 +657,27 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -731,8 +685,8 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -747,126 +701,126 @@
         <v>15</v>
       </c>
       <c r="I8" s="3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>250</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>300</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3" t="n">
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="n">
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -874,16 +828,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>10</v>
@@ -892,27 +846,27 @@
         <v>15</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>10</v>
@@ -926,51 +880,51 @@
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G15" s="3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>10</v>
@@ -982,207 +936,204 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="F18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>10</v>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="3" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I19" s="1" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="3" t="n">
-        <v>250</v>
+      <c r="I20" s="1" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="6" t="s">
+    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="6" t="n">
-        <v>15</v>
+      <c r="G22" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="6" t="n">
-        <v>300</v>
+      <c r="I22" s="1" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>66</v>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,16 +1141,16 @@
         <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>73</v>
@@ -1211,7 +1162,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,19 +1170,19 @@
         <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>5</v>
@@ -1240,27 +1191,27 @@
         <v>15</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>5</v>
@@ -1269,27 +1220,27 @@
         <v>15</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>5</v>
@@ -1298,27 +1249,27 @@
         <v>15</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>5</v>
@@ -1327,27 +1278,27 @@
         <v>15</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>5</v>
@@ -1356,27 +1307,27 @@
         <v>15</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>5</v>
@@ -1388,196 +1339,25 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://wallpapercave.com/wp/wp2044878.jpg"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://www.wallpapersbyte.com/wp-content/uploads/2015/06/Smiles-Smileys-Smile-Yellow-Balls-WallpapersByte-com-1280x1024.jpg"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://wallpapercave.com/wp/wp2044883.jpg"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://wallpapercave.com/wp/wp2312775.jpg"/>
-    <hyperlink ref="F9" r:id="rId5" display="https://images2.alphacoders.com/845/thumb-1920-84502.jpg"/>
-    <hyperlink ref="F10" r:id="rId6" display="https://images.alphacoders.com/637/thumb-350-637541.jpg"/>
-    <hyperlink ref="F12" r:id="rId7" display="https://images4.alphacoders.com/807/thumb-1920-807881.jpg"/>
-    <hyperlink ref="F14" r:id="rId8" display="https://wallpapercave.com/wp/msi4htu.jpg"/>
-    <hyperlink ref="F18" r:id="rId9" display="https://images4.alphacoders.com/845/thumb-1920-84504.jpg"/>
-    <hyperlink ref="F19" r:id="rId10" display="https://images4.alphacoders.com/132/thumb-1920-132008.jpg"/>
-    <hyperlink ref="F20" r:id="rId11" display="https://images7.alphacoders.com/910/thumb-350-910103.jpg"/>
-    <hyperlink ref="F21" r:id="rId12" display="https://images.alphacoders.com/818/thumb-1920-818873.jpg"/>
-    <hyperlink ref="F24" r:id="rId13" display="https://images4.alphacoders.com/217/thumb-350-217624.jpg"/>
-    <hyperlink ref="F36" r:id="rId14" display="https://images5.alphacoders.com/905/thumb-1920-905759.jpg"/>
+    <hyperlink ref="F5" r:id="rId2" display="https://wallpapercave.com/wp/wp2044883.jpg"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://wallpapercave.com/wp/wp2312775.jpg"/>
+    <hyperlink ref="F7" r:id="rId4" display="https://images2.alphacoders.com/845/thumb-1920-84502.jpg"/>
+    <hyperlink ref="F8" r:id="rId5" display="https://images.alphacoders.com/637/thumb-350-637541.jpg"/>
+    <hyperlink ref="F10" r:id="rId6" display="https://images4.alphacoders.com/807/thumb-1920-807881.jpg"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://wallpapercave.com/wp/msi4htu.jpg"/>
+    <hyperlink ref="F15" r:id="rId8" display="https://images4.alphacoders.com/845/thumb-1920-84504.jpg"/>
+    <hyperlink ref="F16" r:id="rId9" display="https://images4.alphacoders.com/132/thumb-1920-132008.jpg"/>
+    <hyperlink ref="F17" r:id="rId10" display="https://images.alphacoders.com/818/thumb-1920-818873.jpg"/>
+    <hyperlink ref="F20" r:id="rId11" display="https://images4.alphacoders.com/217/thumb-350-217624.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -437,8 +437,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/game-manager-service/assets/GameMovies.xlsx
+++ b/game-manager-service/assets/GameMovies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="99">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -79,7 +79,19 @@
     <t xml:space="preserve">hard</t>
   </si>
   <si>
-    <t xml:space="preserve">https://bloximages.chicago2.vip.townnews.com/pressofatlanticcity.com/content/tncms/assets/v3/editorial/8/c3/8c3f0416-a6bc-11e2-b881-0019bb2963f4/516d8cdda39ea.image.jpg</t>
+    <t xml:space="preserve">https://www.wallpapersbyte.com/wp-content/uploads/2015/06/Smiles-Smileys-Smile-Yellow-Balls-WallpapersByte-com-1280x1024.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thriller Seekers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adventureconnections.co.uk/wp-content/uploads/2016/09/thriller-dancing-experience1.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Romance Birds</t>
@@ -91,7 +103,16 @@
     <t xml:space="preserve">https://vignette.wikia.nocookie.net/central/images/a/ab/Romance.png/revision/latest?cb=20171028034947</t>
   </si>
   <si>
-    <t xml:space="preserve">Action Mania</t>
+    <t xml:space="preserve">Hostory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images8.alphacoders.com/717/thumb-350-717747.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActionMania</t>
   </si>
   <si>
     <t xml:space="preserve">https://wallpapercave.com/wp/wp2044883.jpg</t>
@@ -106,12 +127,6 @@
     <t xml:space="preserve">All Thrilling</t>
   </si>
   <si>
-    <t xml:space="preserve">Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://images2.alphacoders.com/845/thumb-1920-84502.jpg</t>
   </si>
   <si>
@@ -160,6 +175,12 @@
     <t xml:space="preserve">https://wallpapercave.com/wp/msi4htu.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Super Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nwave.com/wp-content/uploads/2018/09/nWave_FD_ARCHEOPTERYX.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">All Reality</t>
   </si>
   <si>
@@ -184,6 +205,12 @@
     <t xml:space="preserve">https://images4.alphacoders.com/132/thumb-1920-132008.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Love Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images7.alphacoders.com/910/thumb-350-910103.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reality Resolvers</t>
   </si>
   <si>
@@ -217,6 +244,15 @@
     <t xml:space="preserve">https://images4.alphacoders.com/217/thumb-350-217624.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Only Capitals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Capitals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images6.alphacoders.com/377/thumb-350-377219.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cap Quiz</t>
   </si>
   <si>
@@ -275,6 +311,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://images6.alphacoders.com/681/thumb-350-681347.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images5.alphacoders.com/905/thumb-1920-905759.jpg</t>
   </si>
 </sst>
 </file>
@@ -389,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,6 +460,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -435,20 +481,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="109.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.17"/>
@@ -560,7 +606,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -569,14 +615,14 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>10</v>
@@ -585,12 +631,12 @@
         <v>15</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -599,13 +645,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>10</v>
@@ -614,12 +660,12 @@
         <v>15</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -628,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>10</v>
@@ -643,12 +689,12 @@
         <v>15</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -657,13 +703,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>10</v>
@@ -672,12 +718,12 @@
         <v>15</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
+      <c r="A8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -685,8 +731,8 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -701,28 +747,28 @@
         <v>15</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" s="3" t="n">
         <v>10</v>
       </c>
@@ -730,97 +776,97 @@
         <v>15</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="G10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="n">
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -828,16 +874,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>10</v>
@@ -846,27 +892,27 @@
         <v>15</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>10</v>
@@ -880,51 +926,51 @@
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>10</v>
@@ -936,24 +982,24 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
+      <c r="F17" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>10</v>
@@ -962,178 +1008,181 @@
         <v>15</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="G18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="G19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>5</v>
+      <c r="G20" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <v>150</v>
+      <c r="I20" s="3" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,16 +1190,16 @@
         <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>73</v>
@@ -1162,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,19 +1219,19 @@
         <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>5</v>
@@ -1191,27 +1240,27 @@
         <v>15</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>5</v>
@@ -1220,27 +1269,27 @@
         <v>15</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>5</v>
@@ -1249,27 +1298,27 @@
         <v>15</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>5</v>
@@ -1278,27 +1327,27 @@
         <v>15</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>5</v>
@@ -1307,27 +1356,27 @@
         <v>15</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>5</v>
@@ -1339,25 +1388,196 @@
         <v>150</v>
       </c>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://wallpapercave.com/wp/wp2044878.jpg"/>
-    <hyperlink ref="F5" r:id="rId2" display="https://wallpapercave.com/wp/wp2044883.jpg"/>
-    <hyperlink ref="F6" r:id="rId3" display="https://wallpapercave.com/wp/wp2312775.jpg"/>
-    <hyperlink ref="F7" r:id="rId4" display="https://images2.alphacoders.com/845/thumb-1920-84502.jpg"/>
-    <hyperlink ref="F8" r:id="rId5" display="https://images.alphacoders.com/637/thumb-350-637541.jpg"/>
-    <hyperlink ref="F10" r:id="rId6" display="https://images4.alphacoders.com/807/thumb-1920-807881.jpg"/>
-    <hyperlink ref="F12" r:id="rId7" display="https://wallpapercave.com/wp/msi4htu.jpg"/>
-    <hyperlink ref="F15" r:id="rId8" display="https://images4.alphacoders.com/845/thumb-1920-84504.jpg"/>
-    <hyperlink ref="F16" r:id="rId9" display="https://images4.alphacoders.com/132/thumb-1920-132008.jpg"/>
-    <hyperlink ref="F17" r:id="rId10" display="https://images.alphacoders.com/818/thumb-1920-818873.jpg"/>
-    <hyperlink ref="F20" r:id="rId11" display="https://images4.alphacoders.com/217/thumb-350-217624.jpg"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://www.wallpapersbyte.com/wp-content/uploads/2015/06/Smiles-Smileys-Smile-Yellow-Balls-WallpapersByte-com-1280x1024.jpg"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://wallpapercave.com/wp/wp2044883.jpg"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://wallpapercave.com/wp/wp2312775.jpg"/>
+    <hyperlink ref="F9" r:id="rId5" display="https://images2.alphacoders.com/845/thumb-1920-84502.jpg"/>
+    <hyperlink ref="F10" r:id="rId6" display="https://images.alphacoders.com/637/thumb-350-637541.jpg"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://images4.alphacoders.com/807/thumb-1920-807881.jpg"/>
+    <hyperlink ref="F14" r:id="rId8" display="https://wallpapercave.com/wp/msi4htu.jpg"/>
+    <hyperlink ref="F18" r:id="rId9" display="https://images4.alphacoders.com/845/thumb-1920-84504.jpg"/>
+    <hyperlink ref="F19" r:id="rId10" display="https://images4.alphacoders.com/132/thumb-1920-132008.jpg"/>
+    <hyperlink ref="F20" r:id="rId11" display="https://images7.alphacoders.com/910/thumb-350-910103.jpg"/>
+    <hyperlink ref="F21" r:id="rId12" display="https://images.alphacoders.com/818/thumb-1920-818873.jpg"/>
+    <hyperlink ref="F24" r:id="rId13" display="https://images4.alphacoders.com/217/thumb-350-217624.jpg"/>
+    <hyperlink ref="F36" r:id="rId14" display="https://images5.alphacoders.com/905/thumb-1920-905759.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
